--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86370.39669975801</v>
+        <v>84482.81518335595</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43.95772706123027</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>44.50758761404779</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>35.85115782931125</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>136.128638728132</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>63.86368267430441</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>353.1873653199172</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>9.790440613649634</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>130.5309659613366</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>109.4422623037129</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>46.49098358147252</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>88.03325874434198</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>191.9978963829639</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>97.10471589137977</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>14.88716286735066</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>89.99855356114523</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>84.60427528716278</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>136.9945492566072</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8576818890146001</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>101.3741720029998</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750033</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>110.6538577409932</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.153727875004</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002167</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985774</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>259.5440607437092</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>70.97844236227856</v>
+        <v>93.41221638965524</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180121</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437417</v>
+        <v>90.21779139437413</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897906</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571492</v>
+        <v>55.21598883571487</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523568</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>86.4721728589389</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522964</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329223</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
         <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476.569858826099</v>
+        <v>1581.134716985073</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1581.134716985073</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1222.869018378322</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>837.0807657800781</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>426.0948609904705</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332393</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>2520.971603332393</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X2" t="n">
-        <v>2520.971603332393</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="Y2" t="n">
-        <v>2520.971603332393</v>
+        <v>1581.134716985073</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,13 +4416,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>259.1560728187101</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="C4" t="n">
-        <v>259.1560728187101</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>2559.645415535261</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>2559.645415535261</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>2559.645415535261</v>
       </c>
       <c r="V4" t="n">
-        <v>259.1560728187101</v>
+        <v>2559.645415535261</v>
       </c>
       <c r="W4" t="n">
-        <v>259.1560728187101</v>
+        <v>2559.645415535261</v>
       </c>
       <c r="X4" t="n">
-        <v>259.1560728187101</v>
+        <v>2559.645415535261</v>
       </c>
       <c r="Y4" t="n">
-        <v>259.1560728187101</v>
+        <v>2338.852836391731</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1507.144219645282</v>
+        <v>1305.667163696621</v>
       </c>
       <c r="C5" t="n">
-        <v>1507.144219645282</v>
+        <v>1305.667163696621</v>
       </c>
       <c r="D5" t="n">
-        <v>1148.878521038532</v>
+        <v>947.4014650898705</v>
       </c>
       <c r="E5" t="n">
-        <v>1148.878521038532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>737.8926162489245</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>2267.209817970484</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X5" t="n">
-        <v>1893.744059709404</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="Y5" t="n">
-        <v>1893.744059709404</v>
+        <v>1305.667163696621</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,10 +4647,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.7222632714563</v>
+        <v>418.7159459272334</v>
       </c>
       <c r="C7" t="n">
-        <v>210.7222632714563</v>
+        <v>418.7159459272334</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>418.7159459272334</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>418.7159459272334</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714563</v>
+        <v>418.7159459272334</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.7222632714563</v>
+        <v>418.7159459272334</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>554.3221432721089</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C8" t="n">
-        <v>185.3596263316971</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>581.5642672655068</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362306</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4887,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>386.0450565669175</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>386.0450565669175</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>382.4813941485145</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V10" t="n">
-        <v>382.4813941485145</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W10" t="n">
-        <v>382.4813941485145</v>
+        <v>386.0450565669175</v>
       </c>
       <c r="X10" t="n">
-        <v>382.4813941485145</v>
+        <v>386.0450565669175</v>
       </c>
       <c r="Y10" t="n">
-        <v>382.4813941485145</v>
+        <v>386.0450565669175</v>
       </c>
     </row>
     <row r="11">
@@ -5024,40 +5024,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1564.731711769082</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.0596387883054</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C13" t="n">
-        <v>506.0596387883054</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D13" t="n">
-        <v>506.0596387883054</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5200,49 +5200,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688055</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799347</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471173</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119726</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119726</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909232</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909232</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.21084526296</v>
+        <v>909.3712637033448</v>
       </c>
       <c r="W13" t="n">
-        <v>785.7936752259994</v>
+        <v>619.9540936663842</v>
       </c>
       <c r="X13" t="n">
-        <v>687.7081036185451</v>
+        <v>391.9645427683669</v>
       </c>
       <c r="Y13" t="n">
-        <v>687.7081036185451</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,34 +5261,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5321,7 +5321,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.2581065529675</v>
+        <v>468.595495625988</v>
       </c>
       <c r="C16" t="n">
-        <v>675.2581065529675</v>
+        <v>299.659312698081</v>
       </c>
       <c r="D16" t="n">
-        <v>675.2581065529675</v>
+        <v>299.659312698081</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>299.659312698081</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>299.659312698081</v>
       </c>
       <c r="G16" t="n">
-        <v>359.169691290395</v>
+        <v>299.659312698081</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5440,46 +5440,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>986.002216560966</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.457406631476</v>
+        <v>986.002216560966</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.040236594515</v>
+        <v>696.5850465240053</v>
       </c>
       <c r="X16" t="n">
-        <v>896.0506856964977</v>
+        <v>468.595495625988</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.2581065529675</v>
+        <v>468.595495625988</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>244.1070389581962</v>
+        <v>533.6251570374462</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.129915131015</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.001276344574</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V19" t="n">
-        <v>754.3167881386869</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W19" t="n">
-        <v>464.8996181017263</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X19" t="n">
-        <v>464.8996181017263</v>
+        <v>936.0662010112161</v>
       </c>
       <c r="Y19" t="n">
-        <v>244.1070389581962</v>
+        <v>715.273621867686</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>880.8106280646855</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.130761344647</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N21" t="n">
-        <v>1517.99338900868</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>991.0842369787848</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1396.518117019519</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387593</v>
+        <v>1172.732701809025</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1172.732701809025</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>1172.732701809025</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>1172.732701809025</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>1172.732701809025</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>1172.732701809025</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>485.520085263587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>692.9901170420333</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>524.0539341141264</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>524.0539341141264</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>874.638581872273</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>874.638581872273</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>874.638581872273</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,64 +6209,64 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028586</v>
+        <v>564.1830073829217</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028586</v>
+        <v>395.2468244550148</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028586</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799362</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387593</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011509</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583033</v>
+        <v>1012.965137424469</v>
       </c>
       <c r="X28" t="n">
-        <v>97.2170914602859</v>
+        <v>784.9755865264518</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028586</v>
+        <v>564.1830073829217</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,19 +6473,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.2144416160941</v>
+        <v>750.874819421525</v>
       </c>
       <c r="C31" t="n">
-        <v>615.039123969558</v>
+        <v>637.6995017749889</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440241</v>
+        <v>543.3437276440239</v>
       </c>
       <c r="E31" t="n">
         <v>451.1914993430017</v>
@@ -6610,13 +6610,13 @@
         <v>360.0624171264622</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
@@ -6625,13 +6625,13 @@
         <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.450905366751</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6640,31 +6640,31 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323875</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1623.942368323875</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1425.018745399359</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.362440643769</v>
+        <v>1048.99110458704</v>
       </c>
       <c r="X31" t="n">
-        <v>1019.133755027122</v>
+        <v>876.7624189703938</v>
       </c>
       <c r="Y31" t="n">
-        <v>854.102041164963</v>
+        <v>876.7624189703938</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,16 +6716,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108344</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229687</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.047598850674</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.954596308322</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025264</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859418</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045221</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.288612901033</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
@@ -6935,25 +6935,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207831</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083212</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7403,58 +7403,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>857.5427825698953</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7585,16 +7585,16 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,31 +7801,31 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627887</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,19 +8775,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>158.8724419039331</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>85.30006332127806</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>199.7396287231148</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>15.83804904622866</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>128.6049394976574</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>203.6974904847441</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>58.9152748063909</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>167.5333680366652</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>30.25227184202059</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>220.6898791693746</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24175,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.54663798060342</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>35.78010490557593</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,13 +24601,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338663</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>26.97893759288191</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>22.43377402737674</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523573</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>144.847568849095</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-1.676880856393836e-12</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1096716.728174994</v>
+        <v>1096716.728174995</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1096716.728174995</v>
+        <v>1096716.728174994</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1096716.728174994</v>
+        <v>1096716.728174995</v>
       </c>
     </row>
     <row r="11">
@@ -26314,28 +26314,28 @@
         <v>307890.6636991064</v>
       </c>
       <c r="C2" t="n">
+        <v>307890.6636991065</v>
+      </c>
+      <c r="D2" t="n">
         <v>307890.6636991064</v>
-      </c>
-      <c r="D2" t="n">
-        <v>307890.6636991063</v>
       </c>
       <c r="E2" t="n">
         <v>293271.7948032814</v>
       </c>
       <c r="F2" t="n">
-        <v>293271.7948032815</v>
+        <v>293271.7948032814</v>
       </c>
       <c r="G2" t="n">
         <v>293271.7948032815</v>
       </c>
       <c r="H2" t="n">
-        <v>293271.7948032815</v>
+        <v>293271.7948032814</v>
       </c>
       <c r="I2" t="n">
         <v>293271.7948032814</v>
       </c>
       <c r="J2" t="n">
-        <v>293271.7948032815</v>
+        <v>293271.7948032814</v>
       </c>
       <c r="K2" t="n">
         <v>305116.6030089527</v>
@@ -26347,10 +26347,10 @@
         <v>307890.6636991063</v>
       </c>
       <c r="N2" t="n">
+        <v>307890.6636991063</v>
+      </c>
+      <c r="O2" t="n">
         <v>307890.6636991062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>307890.6636991063</v>
       </c>
       <c r="P2" t="n">
         <v>307890.6636991063</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028458</v>
+        <v>44162.60530284571</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086689</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284567</v>
       </c>
     </row>
     <row r="4">
@@ -26424,22 +26424,22 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687069</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
         <v>40339.23010106726</v>
@@ -26448,16 +26448,16 @@
         <v>44593.3948281912</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
+        <v>44593.39482819122</v>
+      </c>
+      <c r="P4" t="n">
         <v>44593.39482819119</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26488,28 +26488,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-530569.1613653719</v>
       </c>
       <c r="C6" t="n">
-        <v>59398.71784917251</v>
+        <v>59398.71784917262</v>
       </c>
       <c r="D6" t="n">
-        <v>59398.71784917245</v>
+        <v>59398.71784917256</v>
       </c>
       <c r="E6" t="n">
-        <v>-346050.175209202</v>
+        <v>-346147.6343351742</v>
       </c>
       <c r="F6" t="n">
-        <v>179109.8612676941</v>
+        <v>179012.4021417219</v>
       </c>
       <c r="G6" t="n">
-        <v>179109.8612676941</v>
+        <v>179012.4021417219</v>
       </c>
       <c r="H6" t="n">
-        <v>179109.8612676942</v>
+        <v>179012.4021417218</v>
       </c>
       <c r="I6" t="n">
-        <v>179109.8612676941</v>
+        <v>179012.4021417219</v>
       </c>
       <c r="J6" t="n">
-        <v>2686.642075101379</v>
+        <v>2589.182949128924</v>
       </c>
       <c r="K6" t="n">
-        <v>123986.5590748169</v>
+        <v>123968.0653368826</v>
       </c>
       <c r="L6" t="n">
         <v>155239.2562500228</v>
       </c>
       <c r="M6" t="n">
-        <v>30781.14781705254</v>
+        <v>30781.14781705244</v>
       </c>
       <c r="N6" t="n">
+        <v>165582.1630508897</v>
+      </c>
+      <c r="O6" t="n">
         <v>165582.1630508896</v>
       </c>
-      <c r="O6" t="n">
-        <v>165582.1630508897</v>
-      </c>
       <c r="P6" t="n">
-        <v>121419.5577480439</v>
+        <v>121419.557748044</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26756,19 +26756,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108361</v>
+        <v>12.92863350108359</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>338.7761146022503</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>369.2765824067472</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>112.7643151889011</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>76.01690022188691</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>318.0666873979574</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>60.59680470087778</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>138.8250324045627</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>121.6066773624914</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>245.24077931697</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>367.2931864393225</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>198.2486154976357</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>94.52510195362711</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.697723443309466e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35015,10 +35015,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35255,22 +35255,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35495,19 +35495,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>492.0670153019459</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299088</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>334.5577682773024</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36212,7 +36212,7 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>516.7753531914248</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36221,7 +36221,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>350.3150673110541</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36689,10 +36689,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36762,7 +36762,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206028</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412259</v>
+        <v>67.71102679412263</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043182</v>
+        <v>94.42895660043186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,13 +37239,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37324,10 +37324,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,13 +37476,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>326.2624260966949</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
